--- a/Libro1tiaportalplc.xlsx
+++ b/Libro1tiaportalplc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mega\CyA\CyA2-Cursos231\PLC Programmable TELECMIND\uso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA69D29-481A-41B1-890B-206C5319CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18655608-FAA1-431D-8E72-5E11EF355C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="-120" windowWidth="19410" windowHeight="11760" activeTab="2" xr2:uid="{8ED45998-6987-4CD1-98C0-CCF3729B0620}"/>
+    <workbookView xWindow="1200" yWindow="-120" windowWidth="19410" windowHeight="11760" activeTab="3" xr2:uid="{8ED45998-6987-4CD1-98C0-CCF3729B0620}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="190">
   <si>
     <t>Accesible devices</t>
   </si>
@@ -582,6 +582,45 @@
   </si>
   <si>
     <t>MD24</t>
+  </si>
+  <si>
+    <t>GNDfuente</t>
+  </si>
+  <si>
+    <t>GNDsignal</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>AV0</t>
+  </si>
+  <si>
+    <t>AI0</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>negativo</t>
+  </si>
+  <si>
+    <t>24Vdc</t>
+  </si>
+  <si>
+    <t>funcion ventana asignar a boton</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>visibilidad</t>
+  </si>
+  <si>
+    <t>valvula</t>
+  </si>
+  <si>
+    <t>VENTANA / SCREEN ADD</t>
   </si>
 </sst>
 </file>
@@ -610,12 +649,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -630,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -640,6 +703,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E34CF3A-8296-4CE1-BA26-DCE1CAC19F43}">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="87" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1357,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F940FE00-FE99-4393-829C-680C5F8952FF}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A16" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1743,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D764C15-BB04-490E-8571-ADB6DA98BE3C}">
-  <dimension ref="B2:G30"/>
+  <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1951,7 +2023,86 @@
         <v>164</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D36:F36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
